--- a/docs/Fase 3 (2-12 - 7-12)/Gantt Pruebas.xlsx
+++ b/docs/Fase 3 (2-12 - 7-12)/Gantt Pruebas.xlsx
@@ -24,10 +24,10 @@
     <t>Encomienda.ME</t>
   </si>
   <si>
-    <t>Junio</t>
+    <t>Noviembre</t>
   </si>
   <si>
-    <t>Julio</t>
+    <t>Diciembre</t>
   </si>
   <si>
     <t>Descripción del hito</t>
@@ -341,7 +341,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
